--- a/4 вариант 15.10.25/3 Задание.xlsx
+++ b/4 вариант 15.10.25/3 Задание.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29440297\Desktop\Вариант 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="3 Задание" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,39 +30,61 @@
     <t>z</t>
   </si>
   <si>
-    <t>A = x ⋅ z Кон</t>
+    <t>A = x ⋅ z</t>
   </si>
   <si>
-    <t>F = y → A  Имюю</t>
+    <t>F = y → A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,13 +92,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -95,59 +140,119 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -287,176 +392,195 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <f>A2*C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+        <f>IF(B2&lt;=D2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="1">
+        <f>A3*C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+        <f>IF(B3&lt;=D3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="1">
+        <f>A4*C4</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+        <f>IF(B4&lt;=D4,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="1">
+        <f>A5*C5</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+        <f>IF(B5&lt;=D5,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <f>A6*C6</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+        <f>IF(B6&lt;=D6,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="1">
+        <f>A7*C7</f>
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+        <f>IF(B7&lt;=D7,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="1">
+        <f>A8*C8</f>
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+        <f>IF(B8&lt;=D8,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="1">
+        <f>A9*C9</f>
         <v>1</v>
       </c>
       <c r="E9" s="1">
+        <f>IF(B9&lt;=D9,1,0)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>